--- a/Modelo_NFServiçoAvulsa_Informatec_.xlsx
+++ b/Modelo_NFServiçoAvulsa_Informatec_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\robots\CriarNFSatisFaturamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32150A-08DB-46D6-8432-6402178579F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD21CD-D598-42BC-A8F6-BAC8D691C67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="825" windowWidth="19725" windowHeight="10815" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A943C54-7944-4DA3-91BE-0D28C024CB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="nota_fiscal" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>nota_fiscal</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Razão Social</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
   </si>
   <si>
     <t>000001</t>
@@ -230,6 +227,39 @@
   </si>
   <si>
     <t>obs_geral_nota</t>
+  </si>
+  <si>
+    <t>0000000140</t>
+  </si>
+  <si>
+    <t>0000000110</t>
+  </si>
+  <si>
+    <t>0000000120</t>
+  </si>
+  <si>
+    <t>0000000150</t>
+  </si>
+  <si>
+    <t>0000000100</t>
+  </si>
+  <si>
+    <t>0000000170</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>cnpj</t>
   </si>
 </sst>
 </file>
@@ -379,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -402,9 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -415,9 +442,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -426,9 +450,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -446,7 +467,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -456,7 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,6 +503,7 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,18 +820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E8B224-0731-4A39-A1AE-97589DD72FAB}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
@@ -823,7 +841,7 @@
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
@@ -842,124 +860,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="K1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="57" t="s">
+      <c r="U1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="V1" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="49" t="s">
+      <c r="Y1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AD1" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AG1" s="63" t="s">
         <v>16</v>
-      </c>
-      <c r="AG1" s="68" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12">
         <v>197</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>28</v>
+      <c r="C2" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0</v>
+      <c r="F2" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="G2" s="13">
         <v>510</v>
@@ -976,8 +994,8 @@
       <c r="K2" s="18">
         <v>1</v>
       </c>
-      <c r="L2" s="58" t="s">
-        <v>14</v>
+      <c r="L2" s="53" t="s">
+        <v>13</v>
       </c>
       <c r="M2" s="11">
         <v>2</v>
@@ -985,588 +1003,606 @@
       <c r="N2" s="19">
         <v>27.37</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="61">
         <f t="shared" ref="O2:O7" si="0">M2*N2</f>
         <v>54.74</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61">
         <f>SUM(S2+T2+U2)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="61">
         <f>O2-P2-Q2-R2-V2</f>
         <v>54.74</v>
       </c>
-      <c r="X2" s="21">
+      <c r="X2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="20">
         <v>1</v>
       </c>
-      <c r="Y2" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="21">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="46">
-        <v>1970001</v>
-      </c>
-      <c r="AB2" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="69">
+      <c r="Z2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="64">
         <v>44895</v>
       </c>
-      <c r="AD2" s="62">
+      <c r="AD2" s="57">
         <v>1011</v>
       </c>
-      <c r="AE2" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62" t="s">
-        <v>41</v>
+      <c r="AE2" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22">
         <v>187</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="F3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="23">
+        <v>508</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1870002</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1001</v>
+      </c>
+      <c r="J3" s="26">
+        <v>44866</v>
+      </c>
+      <c r="K3" s="28">
+        <v>2</v>
+      </c>
+      <c r="L3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>508</v>
-      </c>
-      <c r="H3" s="26">
-        <v>1870002</v>
-      </c>
-      <c r="I3" s="28">
-        <v>1001</v>
-      </c>
-      <c r="J3" s="27">
-        <v>44866</v>
-      </c>
-      <c r="K3" s="29">
-        <v>2</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>1</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="29">
         <v>1000</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="61">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="P3" s="62">
+      <c r="P3" s="57">
         <f>IF((O3*0.015)&gt;10,O3*0.015,0)</f>
         <v>15</v>
       </c>
-      <c r="Q3" s="65">
+      <c r="Q3" s="60">
         <f>O3*0.11</f>
         <v>110</v>
       </c>
-      <c r="R3" s="66">
+      <c r="R3" s="61">
         <f>O3*5%</f>
         <v>50</v>
       </c>
-      <c r="S3" s="65">
+      <c r="S3" s="60">
         <f>O3*0.0065</f>
         <v>6.5</v>
       </c>
-      <c r="T3" s="65">
+      <c r="T3" s="60">
         <f>O3*0.03</f>
         <v>30</v>
       </c>
-      <c r="U3" s="65">
+      <c r="U3" s="60">
         <f>O3*0.01</f>
         <v>10</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="61">
         <f>S3+T3+U3</f>
         <v>46.5</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="61">
         <f>O3-P3-Q3-R3-V3</f>
         <v>778.5</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="39">
         <v>1</v>
       </c>
-      <c r="Y3" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="41">
-        <v>1870002</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="69">
+      <c r="Z3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="64">
         <v>44885</v>
       </c>
-      <c r="AD3" s="62">
+      <c r="AD3" s="57">
         <v>3020</v>
       </c>
-      <c r="AE3" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62" t="s">
-        <v>41</v>
+      <c r="AE3" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="22">
         <v>187</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="23">
         <v>508</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>1870022</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>1001</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>44866</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>22</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="22">
+      <c r="L4" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="21">
         <v>2</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="29">
         <v>400</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="61">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="61">
         <f>IF((O4*0.015)&gt;10,O4*0.015,0)</f>
         <v>12</v>
       </c>
-      <c r="Q4" s="65">
+      <c r="Q4" s="60">
         <f>O4*0.11</f>
         <v>88</v>
       </c>
-      <c r="R4" s="66">
+      <c r="R4" s="61">
         <f>O4*5%</f>
         <v>40</v>
       </c>
-      <c r="S4" s="65">
+      <c r="S4" s="60">
         <f>O4*0.0065</f>
         <v>5.2</v>
       </c>
-      <c r="T4" s="65">
+      <c r="T4" s="60">
         <f>O4*0.03</f>
         <v>24</v>
       </c>
-      <c r="U4" s="65">
+      <c r="U4" s="60">
         <f>O4*0.01</f>
         <v>8</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="61">
         <f>S4+T4+U4</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="61">
         <f>O4-P4-Q4-R4-V4</f>
         <v>622.79999999999995</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="39">
         <v>1</v>
       </c>
-      <c r="Y4" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="42">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="41">
-        <v>1870022</v>
-      </c>
-      <c r="AB4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="69">
+      <c r="Z4" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="64">
         <v>44885</v>
       </c>
-      <c r="AD4" s="62">
+      <c r="AD4" s="57">
         <v>3020</v>
       </c>
-      <c r="AE4" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62" t="s">
+      <c r="AE4" s="57" t="s">
         <v>42</v>
+      </c>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>192</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
+      <c r="F5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="32">
         <v>506</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="41">
         <v>920001</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>1001</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="34">
         <v>44866</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="42">
         <v>1</v>
       </c>
-      <c r="L5" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="33">
+      <c r="L5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="31">
         <v>50</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <v>20</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="61">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="P5" s="66">
+      <c r="P5" s="61">
         <f>IF((O5*0.015)&gt;10,O5*0.015,0)</f>
         <v>15</v>
       </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="65">
+      <c r="Q5" s="60">
+        <f t="shared" ref="Q5:Q7" si="1">O5*0.11</f>
+        <v>110</v>
+      </c>
+      <c r="R5" s="61">
+        <f t="shared" ref="R5:R7" si="2">O5*5%</f>
+        <v>50</v>
+      </c>
+      <c r="S5" s="60">
         <f>O5*0.0065</f>
         <v>6.5</v>
       </c>
-      <c r="T5" s="65">
+      <c r="T5" s="60">
         <f>O5*0.03</f>
         <v>30</v>
       </c>
-      <c r="U5" s="65">
+      <c r="U5" s="60">
         <f>O5*0.01</f>
         <v>10</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V5" s="61">
         <f>S5+T5+U5</f>
         <v>46.5</v>
       </c>
-      <c r="W5" s="38">
-        <f t="shared" ref="W5:W7" si="1">O5-P5-Q5-R5-V5</f>
-        <v>938.5</v>
-      </c>
-      <c r="X5" s="43">
+      <c r="W5" s="61">
+        <f t="shared" ref="W5:W7" si="3">O5-P5-Q5-R5-V5</f>
+        <v>778.5</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="40">
         <v>1</v>
       </c>
-      <c r="Y5" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="43">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="47">
-        <v>920001</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="69">
+      <c r="Z5" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="64">
         <v>44875</v>
       </c>
-      <c r="AD5" s="62">
+      <c r="AD5" s="57">
         <v>5112</v>
       </c>
-      <c r="AE5" s="62" t="s">
+      <c r="AE5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>3</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="36">
         <v>192</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="F6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="32">
+        <v>506</v>
+      </c>
+      <c r="H6" s="41">
+        <v>920004</v>
+      </c>
+      <c r="I6" s="33">
+        <v>1001</v>
+      </c>
+      <c r="J6" s="34">
+        <v>44866</v>
+      </c>
+      <c r="K6" s="42">
+        <v>4</v>
+      </c>
+      <c r="L6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="40">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>506</v>
-      </c>
-      <c r="H6" s="44">
-        <v>920004</v>
-      </c>
-      <c r="I6" s="35">
-        <v>1001</v>
-      </c>
-      <c r="J6" s="36">
-        <v>44866</v>
-      </c>
-      <c r="K6" s="45">
-        <v>4</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="33">
+      <c r="M6" s="31">
         <v>1</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>2000</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="61">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="P6" s="66">
+      <c r="P6" s="61">
         <f>IF((O6*0.015)&gt;10,O6*0.015,0)</f>
         <v>30</v>
       </c>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="65">
-        <f t="shared" ref="S6:S7" si="2">O6*0.0065</f>
+      <c r="Q6" s="60">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="R6" s="61">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S6" s="60">
+        <f t="shared" ref="S6:S7" si="4">O6*0.0065</f>
         <v>13</v>
       </c>
-      <c r="T6" s="65">
-        <f t="shared" ref="T6:T7" si="3">O6*0.03</f>
+      <c r="T6" s="60">
+        <f t="shared" ref="T6:T7" si="5">O6*0.03</f>
         <v>60</v>
       </c>
-      <c r="U6" s="65">
-        <f t="shared" ref="U6:U7" si="4">O6*0.01</f>
+      <c r="U6" s="60">
+        <f t="shared" ref="U6:U7" si="6">O6*0.01</f>
         <v>20</v>
       </c>
-      <c r="V6" s="66">
-        <f t="shared" ref="V6:V7" si="5">S6+T6+U6</f>
+      <c r="V6" s="61">
+        <f t="shared" ref="V6:V7" si="7">S6+T6+U6</f>
         <v>93</v>
       </c>
-      <c r="W6" s="38">
-        <f t="shared" si="1"/>
-        <v>1877</v>
-      </c>
-      <c r="X6" s="43">
+      <c r="W6" s="61">
+        <f t="shared" si="3"/>
+        <v>1557</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="40">
         <v>1</v>
       </c>
-      <c r="Y6" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="43">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="47">
-        <v>920004</v>
-      </c>
-      <c r="AB6" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="69">
+      <c r="Z6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="64">
         <v>44875</v>
       </c>
-      <c r="AD6" s="62">
+      <c r="AD6" s="57">
         <v>5112</v>
       </c>
-      <c r="AE6" s="62" t="s">
+      <c r="AE6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57" t="s">
         <v>40</v>
-      </c>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="36">
         <v>192</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="F7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="32">
         <v>506</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="41">
         <v>920022</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="33">
         <v>1001</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="34">
         <v>44866</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="42">
         <v>22</v>
       </c>
-      <c r="L7" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="33">
+      <c r="L7" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="31">
         <v>120</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>8</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="61">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="61">
         <f>IF((O7*0.015)&gt;10,O7*0.015,0)</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="65">
+      <c r="Q7" s="60">
+        <f t="shared" si="1"/>
+        <v>105.6</v>
+      </c>
+      <c r="R7" s="61">
         <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="S7" s="60">
+        <f t="shared" si="4"/>
         <v>6.2399999999999993</v>
       </c>
-      <c r="T7" s="65">
+      <c r="T7" s="60">
+        <f t="shared" si="5"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="U7" s="60">
+        <f t="shared" si="6"/>
+        <v>9.6</v>
+      </c>
+      <c r="V7" s="61">
+        <f t="shared" si="7"/>
+        <v>44.64</v>
+      </c>
+      <c r="W7" s="61">
         <f t="shared" si="3"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="U7" s="65">
-        <f t="shared" si="4"/>
-        <v>9.6</v>
-      </c>
-      <c r="V7" s="66">
-        <f t="shared" si="5"/>
-        <v>44.64</v>
-      </c>
-      <c r="W7" s="38">
-        <f t="shared" si="1"/>
-        <v>900.96</v>
-      </c>
-      <c r="X7" s="43">
+        <v>747.36</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="40">
         <v>1</v>
       </c>
-      <c r="Y7" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="43">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="44">
-        <v>920022</v>
-      </c>
-      <c r="AB7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Z7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="64">
         <v>44875</v>
       </c>
-      <c r="AD7" s="62">
+      <c r="AD7" s="57">
         <v>5112</v>
       </c>
-      <c r="AE7" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62" t="s">
-        <v>42</v>
+      <c r="AE7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="62"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="61"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
       <c r="O8" s="9"/>
@@ -1583,11 +1619,11 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
